--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212A07C6-0364-4F20-89A3-B20D4DE69B05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40038D7F-16BC-46B6-983E-1A0BD3E31CFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="500mL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'500mL'!$A$1:$J$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'500mL'!$A$1:$J$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Made by</t>
   </si>
@@ -47,22 +47,10 @@
   </si>
   <si>
     <t>Final Conc</t>
-  </si>
-  <si>
-    <t>Initial pH</t>
-  </si>
-  <si>
-    <t>Final pH</t>
-  </si>
-  <si>
-    <t>Total HCl / KOH added</t>
   </si>
   <si>
     <t>Corrected
 MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target pH = </t>
   </si>
   <si>
     <t>Working Oxidation Buffer</t>
@@ -115,7 +103,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -138,11 +126,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -347,115 +330,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -473,12 +358,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,30 +398,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -961,10 +816,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -982,16 +837,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="28"/>
+      <c r="A1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1000,78 +855,78 @@
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>24</v>
+      <c r="H4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="9"/>
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="12"/>
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1082,65 +937,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1149,18 +948,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1387,14 +1186,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -1407,6 +1198,14 @@
     <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
     <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
@@ -1,29 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40038D7F-16BC-46B6-983E-1A0BD3E31CFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956A4B9A-063F-4770-B7FD-1A045FCD2D51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="500mL" sheetId="1" r:id="rId1"/>
+    <sheet name="Nephrology" sheetId="1" r:id="rId1"/>
+    <sheet name="Brown, et al." sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'500mL'!$A$1:$J$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$1:$J$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Nephrology!$A$1:$J$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+  <si>
+    <t>Working Oxidation Buffer</t>
+  </si>
   <si>
     <t>Made by</t>
   </si>
@@ -44,31 +65,13 @@
   </si>
   <si>
     <t>% purity</t>
-  </si>
-  <si>
-    <t>Final Conc</t>
   </si>
   <si>
     <t>Corrected
 MW</t>
   </si>
   <si>
-    <t>Working Oxidation Buffer</t>
-  </si>
-  <si>
-    <t>Chloramine T
-Solution</t>
-  </si>
-  <si>
-    <t>Oxidation Buffer</t>
-  </si>
-  <si>
-    <t>80%
-(4 parts)</t>
-  </si>
-  <si>
-    <t>20%
-(1 part)</t>
+    <t>Final Conc</t>
   </si>
   <si>
     <t>Amount for
@@ -79,20 +82,56 @@
 5mL</t>
   </si>
   <si>
+    <t>Amount added (g)</t>
+  </si>
+  <si>
+    <t>Chloramine T Solution</t>
+  </si>
+  <si>
+    <t>20%
+(1 part of 5)</t>
+  </si>
+  <si>
     <t>2mL</t>
   </si>
   <si>
+    <t>1mL</t>
+  </si>
+  <si>
+    <t>Oxidation Buffer</t>
+  </si>
+  <si>
+    <t>80%
+(4 parts of 5)</t>
+  </si>
+  <si>
     <t>8mL</t>
   </si>
   <si>
-    <t>1mL</t>
-  </si>
-  <si>
     <t>4mL</t>
   </si>
   <si>
-    <t>Amount added
-(mL)</t>
+    <t>Amount for
+100mL</t>
+  </si>
+  <si>
+    <t>Amount for
+50mL</t>
+  </si>
+  <si>
+    <t>Chloramine T</t>
+  </si>
+  <si>
+    <t>600mg</t>
+  </si>
+  <si>
+    <t>300mg</t>
+  </si>
+  <si>
+    <t>100mL</t>
+  </si>
+  <si>
+    <t>50mL</t>
   </si>
 </sst>
 </file>
@@ -103,19 +142,13 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -135,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -144,58 +177,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -204,13 +190,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -225,179 +209,304 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -422,13 +531,111 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62684309-4EB2-4536-B698-35501AB96719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="76200"/>
+          <a:ext cx="2266950" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Prepare</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> fresh before each assay.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Protect from light.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -437,7 +644,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5C72B6-3E55-498D-802E-95D5E824D7C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297C0E9E-7A8F-41AE-A43D-83667B2E99C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -445,7 +652,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343151" y="85725"/>
+          <a:off x="2314575" y="85725"/>
           <a:ext cx="2266950" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -816,10 +1023,136 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FBD9E1-27E2-487E-9B97-C0E968036999}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -836,135 +1169,105 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="24"/>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>20</v>
+      <c r="G4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="7"/>
+      <c r="A5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="20" t="s">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="482b41a7d5b6e1869d3096739eaa397a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183c2dbcc88402a537c49c71030961e9" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
     <xsd:import namespace="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
     <xsd:element name="properties">
@@ -986,6 +1289,9 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1053,6 +1359,18 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4560d88b-9459-45c3-8a30-9c03b99f5b18" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1084,6 +1402,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e6299094-9969-4aa1-ba76-85cf9469c7b4}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="6cbc0c5a-d948-46e5-8624-1bad210f77c7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1185,33 +1514,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD90F83C-A46B-4AAE-8EB7-3E24C248DBB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1227,4 +1551,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956A4B9A-063F-4770-B7FD-1A045FCD2D51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB07D6-FBFC-4449-BCC8-AAA52413784A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1259,13 +1259,24 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="482b41a7d5b6e1869d3096739eaa397a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183c2dbcc88402a537c49c71030961e9" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -1514,17 +1525,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1535,6 +1535,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD90F83C-A46B-4AAE-8EB7-3E24C248DBB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1553,17 +1564,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
   <ds:schemaRefs>

--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB07D6-FBFC-4449-BCC8-AAA52413784A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930AEE47-428B-42A4-A6D8-2434826D2602}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nephrology" sheetId="1" r:id="rId1"/>
     <sheet name="Brown, et al." sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$1:$J$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$1:$K$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Nephrology!$A$1:$J$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -25,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Working Oxidation Buffer</t>
   </si>
@@ -112,26 +101,28 @@
   </si>
   <si>
     <t>Amount for
-100mL</t>
-  </si>
-  <si>
-    <t>Amount for
 50mL</t>
   </si>
   <si>
     <t>Chloramine T</t>
   </si>
   <si>
-    <t>600mg</t>
-  </si>
-  <si>
     <t>300mg</t>
   </si>
   <si>
-    <t>100mL</t>
-  </si>
-  <si>
     <t>50mL</t>
+  </si>
+  <si>
+    <t>60mg</t>
+  </si>
+  <si>
+    <t>30mg</t>
+  </si>
+  <si>
+    <t>10mL</t>
+  </si>
+  <si>
+    <t>5mL</t>
   </si>
 </sst>
 </file>
@@ -1149,10 +1140,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1164,30 +1155,29 @@
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="8" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1213,15 +1203,18 @@
         <v>21</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1230,14 +1223,17 @@
       <c r="F5" s="16"/>
       <c r="G5" s="15"/>
       <c r="H5" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -1248,12 +1244,15 @@
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1266,17 +1265,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="482b41a7d5b6e1869d3096739eaa397a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183c2dbcc88402a537c49c71030961e9" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -1525,6 +1513,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1535,17 +1534,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD90F83C-A46B-4AAE-8EB7-3E24C248DBB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1564,6 +1552,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
   <ds:schemaRefs>

--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930AEE47-428B-42A4-A6D8-2434826D2602}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECFE3B9-B76D-423D-A4D9-B5EB3610B463}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Brown, et al." sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$1:$K$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$1:$L$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Nephrology!$A$1:$J$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Working Oxidation Buffer</t>
   </si>
@@ -123,6 +123,16 @@
   </si>
   <si>
     <t>5mL</t>
+  </si>
+  <si>
+    <t>Amount for
+15mL</t>
+  </si>
+  <si>
+    <t>90mg</t>
+  </si>
+  <si>
+    <t>15mL</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1150,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1155,29 +1165,29 @@
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="8" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1203,16 +1213,19 @@
         <v>21</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
@@ -1226,14 +1239,17 @@
         <v>23</v>
       </c>
       <c r="I5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="K5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -1247,19 +1263,22 @@
         <v>24</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="96" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECFE3B9-B76D-423D-A4D9-B5EB3610B463}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C96CF7F-F2CB-404D-B845-30694E0898A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Working Oxidation Buffer</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>15mL</t>
+  </si>
+  <si>
+    <t>Sigma Aldrich</t>
   </si>
 </sst>
 </file>
@@ -629,16 +632,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -653,8 +656,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314575" y="85725"/>
-          <a:ext cx="2266950" cy="428625"/>
+          <a:off x="4695825" y="66676"/>
+          <a:ext cx="2657475" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,13 +708,13 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Protect from light.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
@@ -1160,11 +1163,11 @@
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="11" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
@@ -1229,7 +1232,9 @@
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -1253,7 +1258,9 @@
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1277,8 +1284,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="96" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1533,6 +1540,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
@@ -1541,15 +1557,6 @@
     <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1572,6 +1579,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1580,12 +1595,4 @@
     <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C96CF7F-F2CB-404D-B845-30694E0898A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6773355C-AFAE-495A-AFD7-BD65D9005D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1540,15 +1540,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
@@ -1557,6 +1548,15 @@
     <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1579,14 +1579,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1595,4 +1587,12 @@
     <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/WorkingOxidationBuffer_soln_recipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6773355C-AFAE-495A-AFD7-BD65D9005D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F4EF03-DB90-4D9E-9112-7580323A4CF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Working Oxidation Buffer</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Sigma Aldrich</t>
+  </si>
+  <si>
+    <t>Stock</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1159,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1259,7 +1262,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1291,6 +1294,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="482b41a7d5b6e1869d3096739eaa397a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183c2dbcc88402a537c49c71030961e9" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -1539,17 +1553,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1560,6 +1563,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD90F83C-A46B-4AAE-8EB7-3E24C248DBB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1578,17 +1592,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
   <ds:schemaRefs>
